--- a/data/trans_camb/P5_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,52</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 5,26</t>
+          <t>-7,34; 6,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,38</t>
+          <t>-4,87; 5,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,73</t>
+          <t>-4,79; 3,71</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>-3,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-1,32%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 13,28</t>
+          <t>-17,08; 16,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 15,61</t>
+          <t>-12,44; 16,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 10,02</t>
+          <t>-11,85; 9,53</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,25</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 4,83</t>
+          <t>-7,5; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 4,0</t>
+          <t>-9,02; 3,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,23</t>
+          <t>-7,01; 2,39</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>-2,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-5,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>-4,26%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 9,05</t>
+          <t>-12,82; 10,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 8,73</t>
+          <t>-17,34; 7,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 4,38</t>
+          <t>-12,97; 4,7</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-1,48</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 11,69</t>
+          <t>-17,27; 11,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 11,96</t>
+          <t>-11,96; 11,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 7,11</t>
+          <t>-10,2; 7,25</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,71%</t>
+          <t>-2,89%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 24,39</t>
+          <t>-28,21; 22,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 29,78</t>
+          <t>-22,95; 28,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 15,21</t>
+          <t>-18,62; 15,91</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 1,99</t>
+          <t>-6,38; 2,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,81</t>
+          <t>-4,43; 2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,41</t>
+          <t>-4,35; 1,75</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>-2,98%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 4,19</t>
+          <t>-12,46; 5,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 6,93</t>
+          <t>-10,12; 6,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 3,16</t>
+          <t>-9,05; 3,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.681691575575595</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2480628734014056</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6757186236726553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 6,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 5,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 3,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.763953405297712</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.887221463610287</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.91603814050791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,06%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,32%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.490261767053124</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.540837999347398</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.507103979773121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,08; 16,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,44; 16,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-11,85; 9,53</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.04077452769986306</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.006677978720347248</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01727964242849782</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.178141662047609</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1252291638822786</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1228173115490419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 5,5</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 3,24</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 2,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1479188594128772</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1616887342322432</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.09336138332975792</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,84%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,96%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,26%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.461052545667041</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.899296880224339</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.176135605356277</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-12,82; 10,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,34; 7,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; 4,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.771715905525824</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.957077153116328</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.152184208128601</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-3,76</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.686954190399223</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.710401356911863</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.306699273475058</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,27; 11,14</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,96; 11,7</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,2; 7,25</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.02554611427647432</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.05991641482895421</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.04125028605814816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-6,68%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,89%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,89%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1299843143043316</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.1758326690265423</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1321759142583987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-28,21; 22,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-22,95; 28,37</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,62; 15,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.1072662199323787</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.08281382950126025</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.04398793746676337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.83054598386504</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.4585949583068183</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.660084638407888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 2,79</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 2,79</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 1,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-15.90749936569834</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.27940966315657</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.60712434701985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-3,57%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,32%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,98%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.01088061786461</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>10.12459922370622</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.728322802222277</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 5,84</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-10,12; 6,68</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 3,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.05031339942644441</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01003657851256999</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.03252234367288154</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2604616793575368</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2664423628582234</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1942621285102849</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2745933107394254</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2459801130541933</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1652042682822711</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.78980439016066</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.100126456675976</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.436996129303186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.496425020343975</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.65498292346355</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.49418648778917</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.967865451496619</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.63706799173441</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.631045215144</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.03616105972583614</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.02588044959662568</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.03129282791041883</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1268870520842476</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1029248763840513</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.09554769415769891</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.06392786686288532</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.06615060567969967</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.03646643428362732</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
